--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang7/4.XacNhanDoiMoi/XNDM230720_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang7/4.XacNhanDoiMoi/XNDM230720_AnhTuanNB.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$23</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -107,9 +107,6 @@
     <t>IMEI/ID</t>
   </si>
   <si>
-    <t>Còn BH</t>
-  </si>
-  <si>
     <t>Chưa rõ nguyên nhân</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>Camera</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hà Nội, ngày 20 tháng 07 Năm 2023</t>
-  </si>
-  <si>
     <t>Người đại diện: Đại lý Anh Tuấn Ninh Bình</t>
   </si>
   <si>
@@ -134,7 +128,19 @@
     <t>Camera chỉ chỉ quay video đen trắng</t>
   </si>
   <si>
-    <t>Đổi mới</t>
+    <t>VNSH01</t>
+  </si>
+  <si>
+    <t>WM21051100S1060 / 00BD0009D2</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Đổi thiết bị mới</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hà Nội, ngày 24 tháng 07 Năm 2023</t>
   </si>
 </sst>
 </file>
@@ -277,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -417,6 +423,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -425,7 +455,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -515,8 +545,11 @@
     <xf numFmtId="3" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -604,6 +637,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -628,13 +670,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>201409</xdr:colOff>
+      <xdr:colOff>106158</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>132521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1289538</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>99391</xdr:rowOff>
     </xdr:to>
@@ -659,7 +701,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="201409" y="132521"/>
+          <a:off x="106158" y="132521"/>
           <a:ext cx="2465592" cy="640947"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -962,10 +1004,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:I14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -985,104 +1027,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="18" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="40" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="43" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="43" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="46" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
     </row>
     <row r="6" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
+      <c r="A6" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -1092,13 +1134,13 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -1108,15 +1150,15 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
     </row>
     <row r="11" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
@@ -1147,102 +1189,110 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
         <v>1</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="33" t="s">
+      <c r="C12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="19" t="s">
+    </row>
+    <row r="13" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30">
+        <v>2</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="65"/>
+      <c r="I13" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38" t="s">
         <v>22</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="35"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="38" t="s">
-        <v>24</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="38"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
@@ -1267,64 +1317,77 @@
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="C21" s="17"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36" t="s">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="36" t="s">
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-    </row>
-    <row r="63" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="H22" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+    </row>
+    <row r="64" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A10:I10"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A1:C4"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H22:I22"/>
     <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1.2" bottom="1.2" header="0.43307000000000001" footer="0"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
